--- a/Zmays_B73/05_excel/dn15b.xlsx
+++ b/Zmays_B73/05_excel/dn15b.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/EF99E639-57DF-406F-90F9-5067AC5237C0/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/barn/data/06_local_list_excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/F88C4FED-7B60-45D7-8C90-32689414DB17/192.168.10.18/disk6/pzhou/projects/barn/Zmays_B73/05_excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B1CFCBC-8FD7-6044-AE42-4EEFA866CF5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE642AA-D493-E946-82D9-4613983B59EA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17360" yWindow="13740" windowWidth="13900" windowHeight="11260" xr2:uid="{67760308-83C7-244E-9309-67C566F6D356}"/>
+    <workbookView xWindow="17360" yWindow="9740" windowWidth="13900" windowHeight="11260" xr2:uid="{67760308-83C7-244E-9309-67C566F6D356}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="115">
   <si>
     <t>SampleID</t>
   </si>
@@ -367,6 +367,9 @@
   </si>
   <si>
     <t>/home/springer/data_release/umgc/hiseq/150505_D00635_0052_BC6FM7ANXX/Project_Springer_Project_030/W22_JD_AGTTCC_L005_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>PE</t>
   </si>
 </sst>
 </file>
@@ -722,7 +725,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2:F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -766,8 +769,8 @@
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2" t="b">
-        <v>1</v>
+      <c r="F2" t="s">
+        <v>114</v>
       </c>
       <c r="H2" t="s">
         <v>10</v>
@@ -783,8 +786,8 @@
       <c r="E3">
         <v>2</v>
       </c>
-      <c r="F3" t="b">
-        <v>1</v>
+      <c r="F3" t="s">
+        <v>114</v>
       </c>
       <c r="H3" t="s">
         <v>13</v>
@@ -800,8 +803,8 @@
       <c r="E4">
         <v>3</v>
       </c>
-      <c r="F4" t="b">
-        <v>1</v>
+      <c r="F4" t="s">
+        <v>114</v>
       </c>
       <c r="H4" t="s">
         <v>16</v>
@@ -817,8 +820,8 @@
       <c r="E5">
         <v>4</v>
       </c>
-      <c r="F5" t="b">
-        <v>1</v>
+      <c r="F5" t="s">
+        <v>114</v>
       </c>
       <c r="H5" t="s">
         <v>19</v>
@@ -834,8 +837,8 @@
       <c r="E6">
         <v>5</v>
       </c>
-      <c r="F6" t="b">
-        <v>1</v>
+      <c r="F6" t="s">
+        <v>114</v>
       </c>
       <c r="H6" t="s">
         <v>22</v>
@@ -851,8 +854,8 @@
       <c r="E7">
         <v>6</v>
       </c>
-      <c r="F7" t="b">
-        <v>1</v>
+      <c r="F7" t="s">
+        <v>114</v>
       </c>
       <c r="H7" t="s">
         <v>25</v>
@@ -868,8 +871,8 @@
       <c r="E8">
         <v>7</v>
       </c>
-      <c r="F8" t="b">
-        <v>1</v>
+      <c r="F8" t="s">
+        <v>114</v>
       </c>
       <c r="H8" t="s">
         <v>28</v>
@@ -885,8 +888,8 @@
       <c r="E9">
         <v>8</v>
       </c>
-      <c r="F9" t="b">
-        <v>1</v>
+      <c r="F9" t="s">
+        <v>114</v>
       </c>
       <c r="H9" t="s">
         <v>31</v>
@@ -902,8 +905,8 @@
       <c r="E10">
         <v>9</v>
       </c>
-      <c r="F10" t="b">
-        <v>1</v>
+      <c r="F10" t="s">
+        <v>114</v>
       </c>
       <c r="H10" t="s">
         <v>34</v>
@@ -919,8 +922,8 @@
       <c r="E11">
         <v>10</v>
       </c>
-      <c r="F11" t="b">
-        <v>1</v>
+      <c r="F11" t="s">
+        <v>114</v>
       </c>
       <c r="H11" t="s">
         <v>37</v>
@@ -936,8 +939,8 @@
       <c r="E12">
         <v>11</v>
       </c>
-      <c r="F12" t="b">
-        <v>1</v>
+      <c r="F12" t="s">
+        <v>114</v>
       </c>
       <c r="H12" t="s">
         <v>40</v>
@@ -953,8 +956,8 @@
       <c r="E13">
         <v>12</v>
       </c>
-      <c r="F13" t="b">
-        <v>1</v>
+      <c r="F13" t="s">
+        <v>114</v>
       </c>
       <c r="H13" t="s">
         <v>43</v>
@@ -970,8 +973,8 @@
       <c r="E14">
         <v>13</v>
       </c>
-      <c r="F14" t="b">
-        <v>1</v>
+      <c r="F14" t="s">
+        <v>114</v>
       </c>
       <c r="H14" t="s">
         <v>46</v>
@@ -987,8 +990,8 @@
       <c r="E15">
         <v>14</v>
       </c>
-      <c r="F15" t="b">
-        <v>1</v>
+      <c r="F15" t="s">
+        <v>114</v>
       </c>
       <c r="H15" t="s">
         <v>49</v>
@@ -1004,8 +1007,8 @@
       <c r="E16">
         <v>15</v>
       </c>
-      <c r="F16" t="b">
-        <v>1</v>
+      <c r="F16" t="s">
+        <v>114</v>
       </c>
       <c r="H16" t="s">
         <v>52</v>
@@ -1021,8 +1024,8 @@
       <c r="E17">
         <v>16</v>
       </c>
-      <c r="F17" t="b">
-        <v>1</v>
+      <c r="F17" t="s">
+        <v>114</v>
       </c>
       <c r="H17" t="s">
         <v>55</v>
@@ -1038,8 +1041,8 @@
       <c r="E18">
         <v>17</v>
       </c>
-      <c r="F18" t="b">
-        <v>1</v>
+      <c r="F18" t="s">
+        <v>114</v>
       </c>
       <c r="H18" t="s">
         <v>58</v>
@@ -1055,8 +1058,8 @@
       <c r="E19">
         <v>18</v>
       </c>
-      <c r="F19" t="b">
-        <v>1</v>
+      <c r="F19" t="s">
+        <v>114</v>
       </c>
       <c r="H19" t="s">
         <v>61</v>
@@ -1072,8 +1075,8 @@
       <c r="E20">
         <v>19</v>
       </c>
-      <c r="F20" t="b">
-        <v>1</v>
+      <c r="F20" t="s">
+        <v>114</v>
       </c>
       <c r="H20" t="s">
         <v>64</v>
@@ -1089,8 +1092,8 @@
       <c r="E21">
         <v>20</v>
       </c>
-      <c r="F21" t="b">
-        <v>1</v>
+      <c r="F21" t="s">
+        <v>114</v>
       </c>
       <c r="H21" t="s">
         <v>67</v>
@@ -1106,8 +1109,8 @@
       <c r="E22">
         <v>21</v>
       </c>
-      <c r="F22" t="b">
-        <v>1</v>
+      <c r="F22" t="s">
+        <v>114</v>
       </c>
       <c r="H22" t="s">
         <v>70</v>
@@ -1123,8 +1126,8 @@
       <c r="E23">
         <v>22</v>
       </c>
-      <c r="F23" t="b">
-        <v>1</v>
+      <c r="F23" t="s">
+        <v>114</v>
       </c>
       <c r="H23" t="s">
         <v>73</v>
@@ -1140,8 +1143,8 @@
       <c r="E24">
         <v>23</v>
       </c>
-      <c r="F24" t="b">
-        <v>1</v>
+      <c r="F24" t="s">
+        <v>114</v>
       </c>
       <c r="H24" t="s">
         <v>76</v>
@@ -1157,8 +1160,8 @@
       <c r="E25">
         <v>24</v>
       </c>
-      <c r="F25" t="b">
-        <v>1</v>
+      <c r="F25" t="s">
+        <v>114</v>
       </c>
       <c r="H25" t="s">
         <v>79</v>
@@ -1174,8 +1177,8 @@
       <c r="E26">
         <v>25</v>
       </c>
-      <c r="F26" t="b">
-        <v>1</v>
+      <c r="F26" t="s">
+        <v>114</v>
       </c>
       <c r="H26" t="s">
         <v>82</v>
@@ -1191,8 +1194,8 @@
       <c r="E27">
         <v>26</v>
       </c>
-      <c r="F27" t="b">
-        <v>1</v>
+      <c r="F27" t="s">
+        <v>114</v>
       </c>
       <c r="H27" t="s">
         <v>85</v>
@@ -1208,8 +1211,8 @@
       <c r="E28">
         <v>27</v>
       </c>
-      <c r="F28" t="b">
-        <v>1</v>
+      <c r="F28" t="s">
+        <v>114</v>
       </c>
       <c r="H28" t="s">
         <v>88</v>
@@ -1225,8 +1228,8 @@
       <c r="E29">
         <v>28</v>
       </c>
-      <c r="F29" t="b">
-        <v>1</v>
+      <c r="F29" t="s">
+        <v>114</v>
       </c>
       <c r="H29" t="s">
         <v>91</v>
@@ -1242,8 +1245,8 @@
       <c r="E30">
         <v>29</v>
       </c>
-      <c r="F30" t="b">
-        <v>1</v>
+      <c r="F30" t="s">
+        <v>114</v>
       </c>
       <c r="H30" t="s">
         <v>94</v>
@@ -1259,8 +1262,8 @@
       <c r="E31">
         <v>30</v>
       </c>
-      <c r="F31" t="b">
-        <v>1</v>
+      <c r="F31" t="s">
+        <v>114</v>
       </c>
       <c r="H31" t="s">
         <v>97</v>
@@ -1276,8 +1279,8 @@
       <c r="E32">
         <v>31</v>
       </c>
-      <c r="F32" t="b">
-        <v>1</v>
+      <c r="F32" t="s">
+        <v>114</v>
       </c>
       <c r="H32" t="s">
         <v>100</v>
@@ -1293,8 +1296,8 @@
       <c r="E33">
         <v>32</v>
       </c>
-      <c r="F33" t="b">
-        <v>1</v>
+      <c r="F33" t="s">
+        <v>114</v>
       </c>
       <c r="H33" t="s">
         <v>103</v>
@@ -1310,8 +1313,8 @@
       <c r="E34">
         <v>33</v>
       </c>
-      <c r="F34" t="b">
-        <v>1</v>
+      <c r="F34" t="s">
+        <v>114</v>
       </c>
       <c r="H34" t="s">
         <v>106</v>
@@ -1327,8 +1330,8 @@
       <c r="E35">
         <v>34</v>
       </c>
-      <c r="F35" t="b">
-        <v>1</v>
+      <c r="F35" t="s">
+        <v>114</v>
       </c>
       <c r="H35" t="s">
         <v>109</v>
@@ -1344,8 +1347,8 @@
       <c r="E36">
         <v>35</v>
       </c>
-      <c r="F36" t="b">
-        <v>1</v>
+      <c r="F36" t="s">
+        <v>114</v>
       </c>
       <c r="H36" t="s">
         <v>112</v>
